--- a/CCTV통계.xlsx
+++ b/CCTV통계.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\pybie\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="525" windowWidth="27735" windowHeight="11925"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="Excel_Import_1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -547,6 +552,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -594,7 +602,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,7 +637,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -838,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -849,7 +857,7 @@
     <col min="1" max="10" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -881,13 +889,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="14">
         <f t="shared" ref="B2:B13" si="0">SUM(C2:J2)</f>
-        <v>5221</v>
+        <v>10686</v>
       </c>
       <c r="C2" s="14">
         <v>1944</v>
@@ -901,26 +909,30 @@
       <c r="F2" s="14">
         <v>430</v>
       </c>
-      <c r="G2" s="14">
-        <v>546</v>
-      </c>
-      <c r="H2" s="14">
-        <v>765</v>
-      </c>
-      <c r="I2" s="14">
-        <v>577</v>
-      </c>
-      <c r="J2" s="14">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G2" s="15">
+        <v>976</v>
+      </c>
+      <c r="H2" s="15">
+        <v>1741</v>
+      </c>
+      <c r="I2" s="15">
+        <v>2318</v>
+      </c>
+      <c r="J2" s="15">
+        <v>2766</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="14">
         <f t="shared" si="0"/>
-        <v>1879</v>
+        <v>3208</v>
       </c>
       <c r="C3" s="14">
         <v>303</v>
@@ -934,26 +946,30 @@
       <c r="F3" s="14">
         <v>59</v>
       </c>
-      <c r="G3" s="14">
-        <v>144</v>
-      </c>
-      <c r="H3" s="14">
-        <v>194</v>
-      </c>
-      <c r="I3" s="14">
-        <v>273</v>
-      </c>
-      <c r="J3" s="14">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="15">
+        <v>203</v>
+      </c>
+      <c r="H3" s="15">
+        <v>397</v>
+      </c>
+      <c r="I3" s="15">
+        <v>670</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1055</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="14">
         <f t="shared" si="0"/>
-        <v>1265</v>
+        <v>2505</v>
       </c>
       <c r="C4" s="14">
         <v>243</v>
@@ -967,26 +983,30 @@
       <c r="F4" s="14">
         <v>74</v>
       </c>
-      <c r="G4" s="14">
-        <v>145</v>
-      </c>
-      <c r="H4" s="14">
-        <v>254</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
-      <c r="J4" s="14">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="15">
+        <v>219</v>
+      </c>
+      <c r="H4" s="15">
+        <v>473</v>
+      </c>
+      <c r="I4" s="15">
+        <v>474</v>
+      </c>
+      <c r="J4" s="15">
+        <v>793</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="14">
         <f t="shared" si="0"/>
-        <v>1617</v>
+        <v>3742</v>
       </c>
       <c r="C5" s="14">
         <v>219</v>
@@ -1000,26 +1020,30 @@
       <c r="F5" s="14">
         <v>230</v>
       </c>
-      <c r="G5" s="14">
-        <v>187</v>
-      </c>
-      <c r="H5" s="14">
-        <v>190</v>
-      </c>
-      <c r="I5" s="14">
-        <v>264</v>
-      </c>
-      <c r="J5" s="14">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G5" s="15">
+        <v>417</v>
+      </c>
+      <c r="H5" s="15">
+        <v>607</v>
+      </c>
+      <c r="I5" s="15">
+        <v>871</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1125</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="14">
         <f t="shared" si="0"/>
-        <v>3985</v>
+        <v>9692</v>
       </c>
       <c r="C6" s="14">
         <v>430</v>
@@ -1033,26 +1057,30 @@
       <c r="F6" s="14">
         <v>487</v>
       </c>
-      <c r="G6" s="14">
-        <v>609</v>
-      </c>
-      <c r="H6" s="14">
-        <v>619</v>
-      </c>
-      <c r="I6" s="14">
-        <v>694</v>
-      </c>
-      <c r="J6" s="14">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="15">
+        <v>1096</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1715</v>
+      </c>
+      <c r="I6" s="15">
+        <v>2409</v>
+      </c>
+      <c r="J6" s="15">
+        <v>3080</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
-        <v>1581</v>
+        <v>2631</v>
       </c>
       <c r="C7" s="14">
         <v>470</v>
@@ -1066,26 +1094,30 @@
       <c r="F7" s="14">
         <v>87</v>
       </c>
-      <c r="G7" s="14">
-        <v>64</v>
-      </c>
-      <c r="H7" s="14">
-        <v>21</v>
-      </c>
-      <c r="I7" s="14">
-        <v>468</v>
-      </c>
-      <c r="J7" s="14">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7" s="15">
+        <v>151</v>
+      </c>
+      <c r="H7" s="15">
+        <v>172</v>
+      </c>
+      <c r="I7" s="15">
+        <v>640</v>
+      </c>
+      <c r="J7" s="15">
+        <v>986</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="14">
         <f t="shared" si="0"/>
-        <v>3227</v>
+        <v>5971</v>
       </c>
       <c r="C8" s="14">
         <v>852</v>
@@ -1099,26 +1131,30 @@
       <c r="F8" s="14">
         <v>187</v>
       </c>
-      <c r="G8" s="14">
-        <v>268</v>
-      </c>
-      <c r="H8" s="14">
-        <v>326</v>
-      </c>
-      <c r="I8" s="14">
-        <v>540</v>
-      </c>
-      <c r="J8" s="14">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" s="15">
+        <v>455</v>
+      </c>
+      <c r="H8" s="15">
+        <v>781</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1321</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1807</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="14">
         <f t="shared" si="0"/>
-        <v>1634</v>
+        <v>3655</v>
       </c>
       <c r="C9" s="14">
         <v>27</v>
@@ -1132,26 +1168,30 @@
       <c r="F9" s="14">
         <v>101</v>
       </c>
-      <c r="G9" s="14">
-        <v>382</v>
-      </c>
-      <c r="H9" s="14">
-        <v>136</v>
-      </c>
-      <c r="I9" s="14">
-        <v>199</v>
-      </c>
-      <c r="J9" s="14">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="15">
+        <v>483</v>
+      </c>
+      <c r="H9" s="15">
+        <v>619</v>
+      </c>
+      <c r="I9" s="15">
+        <v>818</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1348</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="14">
         <f t="shared" si="0"/>
-        <v>1906</v>
+        <v>4315</v>
       </c>
       <c r="C10" s="14">
         <v>481</v>
@@ -1165,26 +1205,30 @@
       <c r="F10" s="14">
         <v>80</v>
       </c>
-      <c r="G10" s="14">
-        <v>461</v>
-      </c>
-      <c r="H10" s="14">
-        <v>298</v>
-      </c>
-      <c r="I10" s="14">
-        <v>110</v>
-      </c>
-      <c r="J10" s="14">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="15">
+        <v>541</v>
+      </c>
+      <c r="H10" s="15">
+        <v>839</v>
+      </c>
+      <c r="I10" s="15">
+        <v>949</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1105</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="14">
         <f t="shared" si="0"/>
-        <v>858</v>
+        <v>2202</v>
       </c>
       <c r="C11" s="14">
         <v>197</v>
@@ -1198,26 +1242,30 @@
       <c r="F11" s="14">
         <v>185</v>
       </c>
-      <c r="G11" s="14">
-        <v>59</v>
-      </c>
-      <c r="H11" s="14">
-        <v>155</v>
-      </c>
-      <c r="I11" s="14">
-        <v>117</v>
-      </c>
-      <c r="J11" s="14">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="15">
+        <v>244</v>
+      </c>
+      <c r="H11" s="15">
+        <v>399</v>
+      </c>
+      <c r="I11" s="15">
+        <v>516</v>
+      </c>
+      <c r="J11" s="15">
+        <v>587</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="14">
         <f t="shared" si="0"/>
-        <v>2003</v>
+        <v>8242</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1225,27 +1273,30 @@
       <c r="F12" s="14">
         <v>1326</v>
       </c>
-      <c r="G12" s="14">
-        <v>111</v>
-      </c>
-      <c r="H12" s="14">
-        <v>233</v>
-      </c>
-      <c r="I12" s="14">
-        <v>136</v>
-      </c>
-      <c r="J12" s="14">
-        <f>65+132</f>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="15">
+        <v>1437</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1670</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1806</v>
+      </c>
+      <c r="J12" s="15">
+        <v>2003</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="14">
         <f t="shared" si="0"/>
-        <v>1780</v>
+        <v>4968</v>
       </c>
       <c r="C13" s="14">
         <v>238</v>
@@ -1259,20 +1310,24 @@
       <c r="F13" s="14">
         <v>503</v>
       </c>
-      <c r="G13" s="14">
-        <v>130</v>
-      </c>
-      <c r="H13" s="14">
-        <v>254</v>
-      </c>
-      <c r="I13" s="14">
-        <v>278</v>
-      </c>
-      <c r="J13" s="14">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="15">
+        <v>633</v>
+      </c>
+      <c r="H13" s="15">
+        <v>887</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1165</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1420</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1291,26 +1346,30 @@
       <c r="F14" s="14">
         <v>70</v>
       </c>
-      <c r="G14" s="14">
-        <v>177</v>
-      </c>
-      <c r="H14" s="14">
-        <v>359</v>
-      </c>
-      <c r="I14" s="14">
-        <v>372</v>
-      </c>
-      <c r="J14" s="14">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="15">
+        <v>247</v>
+      </c>
+      <c r="H14" s="15">
+        <v>606</v>
+      </c>
+      <c r="I14" s="15">
+        <v>978</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1173</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="14">
         <f t="shared" ref="B15:B21" si="1">SUM(C15:J15)</f>
-        <v>2121</v>
+        <v>3873</v>
       </c>
       <c r="C15" s="14">
         <v>565</v>
@@ -1324,26 +1383,30 @@
       <c r="F15" s="14">
         <v>114</v>
       </c>
-      <c r="G15" s="14">
-        <v>109</v>
-      </c>
-      <c r="H15" s="14">
-        <v>277</v>
-      </c>
-      <c r="I15" s="14">
-        <v>415</v>
-      </c>
-      <c r="J15" s="14">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="15">
+        <v>223</v>
+      </c>
+      <c r="H15" s="15">
+        <v>500</v>
+      </c>
+      <c r="I15" s="15">
+        <v>915</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1109</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="14">
         <f t="shared" si="1"/>
-        <v>2835</v>
+        <v>4967</v>
       </c>
       <c r="C16" s="14">
         <v>1172</v>
@@ -1357,26 +1420,30 @@
       <c r="F16" s="14">
         <v>134</v>
       </c>
-      <c r="G16" s="14">
-        <v>215</v>
-      </c>
-      <c r="H16" s="14">
-        <v>352</v>
-      </c>
-      <c r="I16" s="14">
-        <v>247</v>
-      </c>
-      <c r="J16" s="14">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G16" s="15">
+        <v>349</v>
+      </c>
+      <c r="H16" s="15">
+        <v>701</v>
+      </c>
+      <c r="I16" s="15">
+        <v>948</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1344</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="14">
         <f t="shared" si="1"/>
-        <v>2679</v>
+        <v>5192</v>
       </c>
       <c r="C17" s="14">
         <v>665</v>
@@ -1390,26 +1457,30 @@
       <c r="F17" s="14">
         <v>101</v>
       </c>
-      <c r="G17" s="14">
-        <v>258</v>
-      </c>
-      <c r="H17" s="14">
-        <v>201</v>
-      </c>
-      <c r="I17" s="14">
-        <v>933</v>
-      </c>
-      <c r="J17" s="14">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G17" s="15">
+        <v>359</v>
+      </c>
+      <c r="H17" s="15">
+        <v>560</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1493</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1787</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="14">
         <f t="shared" si="1"/>
-        <v>3003</v>
+        <v>5865</v>
       </c>
       <c r="C18" s="14">
         <v>779</v>
@@ -1423,26 +1494,30 @@
       <c r="F18" s="14">
         <v>241</v>
       </c>
-      <c r="G18" s="14">
-        <v>279</v>
-      </c>
-      <c r="H18" s="14">
-        <v>388</v>
-      </c>
-      <c r="I18" s="14">
-        <v>285</v>
-      </c>
-      <c r="J18" s="14">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G18" s="15">
+        <v>520</v>
+      </c>
+      <c r="H18" s="15">
+        <v>908</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1193</v>
+      </c>
+      <c r="J18" s="15">
+        <v>1836</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="14">
         <f t="shared" si="1"/>
-        <v>1586</v>
+        <v>2484</v>
       </c>
       <c r="C19" s="14">
         <v>600</v>
@@ -1456,26 +1531,30 @@
       <c r="F19" s="14">
         <v>21</v>
       </c>
-      <c r="G19" s="14">
-        <v>166</v>
-      </c>
-      <c r="H19" s="14">
-        <v>100</v>
-      </c>
-      <c r="I19" s="14">
-        <v>116</v>
-      </c>
-      <c r="J19" s="14">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G19" s="15">
+        <v>187</v>
+      </c>
+      <c r="H19" s="15">
+        <v>287</v>
+      </c>
+      <c r="I19" s="15">
+        <v>403</v>
+      </c>
+      <c r="J19" s="15">
+        <v>799</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="14">
         <f t="shared" si="1"/>
-        <v>2775</v>
+        <v>4802</v>
       </c>
       <c r="C20" s="14">
         <v>772</v>
@@ -1489,26 +1568,30 @@
       <c r="F20" s="14">
         <v>169</v>
       </c>
-      <c r="G20" s="14">
-        <v>172</v>
-      </c>
-      <c r="H20" s="14">
-        <v>349</v>
-      </c>
-      <c r="I20" s="14">
-        <v>137</v>
-      </c>
-      <c r="J20" s="14">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G20" s="15">
+        <v>341</v>
+      </c>
+      <c r="H20" s="15">
+        <v>690</v>
+      </c>
+      <c r="I20" s="15">
+        <v>827</v>
+      </c>
+      <c r="J20" s="15">
+        <v>1657</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="14">
         <f t="shared" si="1"/>
-        <v>2495</v>
+        <v>5410</v>
       </c>
       <c r="C21" s="14">
         <v>132</v>
@@ -1522,20 +1605,24 @@
       <c r="F21" s="14">
         <v>217</v>
       </c>
-      <c r="G21" s="14">
-        <v>366</v>
-      </c>
-      <c r="H21" s="14">
-        <v>289</v>
-      </c>
-      <c r="I21" s="14">
-        <v>371</v>
-      </c>
-      <c r="J21" s="14">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G21" s="15">
+        <v>583</v>
+      </c>
+      <c r="H21" s="15">
+        <v>872</v>
+      </c>
+      <c r="I21" s="15">
+        <v>1243</v>
+      </c>
+      <c r="J21" s="15">
+        <v>2036</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
@@ -1554,26 +1641,30 @@
       <c r="F22" s="14">
         <v>107</v>
       </c>
-      <c r="G22" s="14">
-        <v>102</v>
-      </c>
-      <c r="H22" s="14">
-        <v>89</v>
-      </c>
-      <c r="I22" s="14">
-        <v>60</v>
-      </c>
-      <c r="J22" s="14">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G22" s="15">
+        <v>209</v>
+      </c>
+      <c r="H22" s="15">
+        <v>298</v>
+      </c>
+      <c r="I22" s="15">
+        <v>358</v>
+      </c>
+      <c r="J22" s="15">
+        <v>431</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="14">
         <f>SUM(C23:J23)</f>
-        <v>2962</v>
+        <v>5695</v>
       </c>
       <c r="C23" s="14">
         <v>1365</v>
@@ -1587,26 +1678,30 @@
       <c r="F23" s="14">
         <v>343</v>
       </c>
-      <c r="G23" s="14">
-        <v>180</v>
-      </c>
-      <c r="H23" s="14">
-        <v>296</v>
-      </c>
-      <c r="I23" s="14">
-        <v>229</v>
-      </c>
-      <c r="J23" s="14">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G23" s="15">
+        <v>523</v>
+      </c>
+      <c r="H23" s="15">
+        <v>819</v>
+      </c>
+      <c r="I23" s="15">
+        <v>1048</v>
+      </c>
+      <c r="J23" s="15">
+        <v>1415</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="14">
         <f>SUM(C24:J24)</f>
-        <v>1471</v>
+        <v>3161</v>
       </c>
       <c r="C24" s="14">
         <v>8</v>
@@ -1620,26 +1715,30 @@
       <c r="F24" s="14">
         <v>132</v>
       </c>
-      <c r="G24" s="14">
-        <v>195</v>
-      </c>
-      <c r="H24" s="14">
-        <v>148</v>
-      </c>
-      <c r="I24" s="14">
-        <v>281</v>
-      </c>
-      <c r="J24" s="14">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G24" s="15">
+        <v>327</v>
+      </c>
+      <c r="H24" s="15">
+        <v>475</v>
+      </c>
+      <c r="I24" s="15">
+        <v>756</v>
+      </c>
+      <c r="J24" s="15">
+        <v>857</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="14">
         <f>SUM(C25:J25)</f>
-        <v>1544</v>
+        <v>3456</v>
       </c>
       <c r="C25" s="14">
         <v>25</v>
@@ -1653,26 +1752,30 @@
       <c r="F25" s="14">
         <v>80</v>
       </c>
-      <c r="G25" s="14">
-        <v>245</v>
-      </c>
-      <c r="H25" s="14">
-        <v>270</v>
-      </c>
-      <c r="I25" s="14">
-        <v>317</v>
-      </c>
-      <c r="J25" s="14">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="15">
+        <v>325</v>
+      </c>
+      <c r="H25" s="15">
+        <v>595</v>
+      </c>
+      <c r="I25" s="15">
+        <v>912</v>
+      </c>
+      <c r="J25" s="15">
+        <v>1240</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="14">
         <f>SUM(C26:J26)</f>
-        <v>1068</v>
+        <v>4762</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -1680,20 +1783,24 @@
       <c r="F26" s="14">
         <v>770</v>
       </c>
-      <c r="G26" s="14">
-        <v>102</v>
-      </c>
-      <c r="H26" s="14">
-        <v>121</v>
-      </c>
-      <c r="I26" s="14">
-        <v>66</v>
-      </c>
-      <c r="J26" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G26" s="15">
+        <v>872</v>
+      </c>
+      <c r="H26" s="15">
+        <v>993</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1059</v>
+      </c>
+      <c r="J26" s="15">
+        <v>1068</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1704,7 +1811,7 @@
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
